--- a/Dokumente/Zeiterfassung.xlsx
+++ b/Dokumente/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2592EC6C-3040-4228-B9E8-C308A41C62B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E948F89-19BC-4242-93D1-5D966F0256BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,9 +823,11 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D14" s="19">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E14" s="19"/>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.3125</v>
+      </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
@@ -837,12 +839,14 @@
         <v>7</v>
       </c>
       <c r="C15" s="19">
-        <v>0.69791666666666663</v>
+        <v>0.65625</v>
       </c>
       <c r="D15" s="19">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="19">
+        <v>0.375</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
@@ -852,18 +856,21 @@
       </c>
       <c r="C16" s="4">
         <f>C15-C14-C17</f>
-        <v>0.35416666666666663</v>
+        <v>0.32291666666666663</v>
       </c>
       <c r="D16" s="4">
         <f>D15-D14-D17</f>
-        <v>0.35416666666666663</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>0.34375</v>
+      </c>
+      <c r="E16" s="4">
+        <f>E15-E14-E17</f>
+        <v>6.25E-2</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3">
         <f>SUM(C16:G16)*24</f>
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -872,7 +879,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2">
-        <v>5.2083333333333336E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D17" s="2">
         <v>5.2083333333333336E-2</v>
@@ -891,7 +898,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>79.999999999999986</v>
+        <v>80.499999999999986</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung.xlsx
+++ b/Dokumente/Zeiterfassung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E948F89-19BC-4242-93D1-5D966F0256BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725F5554-22CC-46F6-BAE0-4D671CCB2F26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -528,13 +528,14 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -842,10 +843,10 @@
         <v>0.65625</v>
       </c>
       <c r="D15" s="19">
-        <v>0.69791666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="E15" s="19">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -860,17 +861,17 @@
       </c>
       <c r="D16" s="4">
         <f>D15-D14-D17</f>
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="E16" s="4">
         <f>E15-E14-E17</f>
-        <v>6.25E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3">
         <f>SUM(C16:G16)*24</f>
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,9 +883,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.125E-2</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
@@ -898,7 +901,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>80.499999999999986</v>
+        <v>79.999999999999986</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
